--- a/predictions/single/AdaBoostRegressor/Angina.xlsx
+++ b/predictions/single/AdaBoostRegressor/Angina.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3358319330457799</v>
+        <v>0.3351468295170296</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9935393403780232</v>
+        <v>0.9935525202464917</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/AdaBoostRegressor/Angina.xlsx
+++ b/predictions/single/AdaBoostRegressor/Angina.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3351468295170296</v>
+        <v>0.3382327358558254</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9935525202464917</v>
+        <v>0.9934931542704826</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/AdaBoostRegressor/Angina.xlsx
+++ b/predictions/single/AdaBoostRegressor/Angina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3382327358558254</v>
+        <v>0.3374190203127619</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9934931542704826</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9935088083481195</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4643319800914053</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/AdaBoostRegressor/Angina.xlsx
+++ b/predictions/single/AdaBoostRegressor/Angina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3374190203127619</v>
+        <v>0.3450020433581751</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9935088083481195</v>
+        <v>0.9933629278466505</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4643319800914053</v>
+        <v>0.4689456870504659</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor(n_estimators=100))])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/AdaBoostRegressor/Angina.xlsx
+++ b/predictions/single/AdaBoostRegressor/Angina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3450020433581751</v>
+        <v>0.3442298297147584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9933629278466505</v>
+        <v>0.9933777835200235</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4689456870504659</v>
+        <v>0.4656029464458803</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -487,8 +497,15 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', AdaBoostRegressor(n_estimators=100))])</t>
-        </is>
+          <t>Pipeline(steps=[('model',
+                 AdaBoostRegressor(learning_rate=0.1, n_estimators=100))])</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.125854933266722</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9890000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/AdaBoostRegressor/Angina.xlsx
+++ b/predictions/single/AdaBoostRegressor/Angina.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3442298297147584</v>
+        <v>0.3536558229599028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9933777835200235</v>
+        <v>0.9931964483700167</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4656029464458803</v>
+        <v>0.4685072552898007</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -498,14 +498,14 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('model',
-                 AdaBoostRegressor(learning_rate=0.1, n_estimators=100))])</t>
+                 AdaBoostRegressor(learning_rate=0.5, n_estimators=150))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.125854933266722</v>
+        <v>0.1263793038999817</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9890000000000001</v>
+        <v>0.988</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/AdaBoostRegressor/Angina.xlsx
+++ b/predictions/single/AdaBoostRegressor/Angina.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3536558229599028</v>
+        <v>0.3322939521381819</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9931964483700167</v>
+        <v>0.9936074032634841</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4685072552898007</v>
+        <v>0.4553638524317597</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -498,14 +498,14 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('model',
-                 AdaBoostRegressor(learning_rate=0.5, n_estimators=150))])</t>
+                 AdaBoostRegressor(learning_rate=0.5, n_estimators=100))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1263793038999817</v>
+        <v>0.1237476138499915</v>
       </c>
       <c r="H2" t="n">
-        <v>0.988</v>
+        <v>0.992</v>
       </c>
     </row>
   </sheetData>
